--- a/data/Results.xlsx
+++ b/data/Results.xlsx
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-162</v>
+        <v>-170</v>
       </c>
       <c r="D2" t="n">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6700833823384222</v>
+        <v>0.6879406795897915</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3316360380822128</v>
+        <v>0.3120544181573381</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2850902300411207</v>
+        <v>1.319990287790425</v>
       </c>
       <c r="H2" t="n">
-        <v>0.3108394130231673</v>
+        <v>1.005795337321175</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>-162</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7281107906725991</v>
+        <v>0.7332958622699053</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2725988801907372</v>
+        <v>0.2666240633108422</v>
       </c>
       <c r="G3" t="n">
-        <v>60.03414659873339</v>
+        <v>61.25782349569764</v>
       </c>
       <c r="H3" t="n">
-        <v>-18.44824931602792</v>
+        <v>-18.29855801308094</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7281107906725991</v>
+        <v>0.7332958622699053</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -575,19 +575,19 @@
         <v>-750</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2687821795945879</v>
+        <v>0.2977994568870492</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7318476904242839</v>
+        <v>0.7021764238743191</v>
       </c>
       <c r="G4" t="n">
-        <v>36.73886224661747</v>
+        <v>54.87466055440578</v>
       </c>
       <c r="H4" t="n">
-        <v>-69.03047950155076</v>
+        <v>-66.5243686596375</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2687821795945879</v>
+        <v>0.2977994568870492</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -605,22 +605,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-108</v>
+        <v>-102</v>
       </c>
       <c r="D5" t="n">
-        <v>-112</v>
+        <v>-118</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5479055185393764</v>
+        <v>0.6076707360039044</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4530783163920354</v>
+        <v>0.3923499865173703</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.107085318342321</v>
+        <v>10.44067516940068</v>
       </c>
       <c r="H5" t="n">
-        <v>-14.22031275391635</v>
+        <v>-15.22021567779851</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -641,22 +641,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="D6" t="n">
-        <v>-170</v>
+        <v>-180</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3511611132007103</v>
+        <v>0.3860438792319744</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6506956647040413</v>
+        <v>0.6139791208342429</v>
       </c>
       <c r="G6" t="n">
-        <v>-27.11901060542811</v>
+        <v>-15.98903019200641</v>
       </c>
       <c r="H6" t="n">
-        <v>-34.54884957969125</v>
+        <v>-35.06343869712241</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -677,28 +677,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-625</v>
+        <v>-575</v>
       </c>
       <c r="D7" t="n">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7515126538024302</v>
+        <v>0.7428449900324272</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2487201647711709</v>
+        <v>0.2570549654412338</v>
       </c>
       <c r="G7" t="n">
-        <v>-18.6245321589181</v>
+        <v>-18.66602290923681</v>
       </c>
       <c r="H7" t="n">
-        <v>60.56894035112578</v>
+        <v>57.28285931576709</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2487201647711709</v>
+        <v>0.2570549654412338</v>
       </c>
     </row>
   </sheetData>

--- a/data/Results.xlsx
+++ b/data/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,231 +474,35 @@
           <t>Away LB Return</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Home Bet</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Away Bet</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>TOR</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAC</t>
+          <t>NYK</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-170</v>
+        <v>200</v>
       </c>
       <c r="D2" t="n">
-        <v>142</v>
+        <v>-245</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6879406795897915</v>
+        <v>0.3507480227274955</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3120544181573381</v>
+        <v>0.6495308864939859</v>
       </c>
       <c r="G2" t="n">
-        <v>1.319990287790425</v>
+        <v>-9.775593181751347</v>
       </c>
       <c r="H2" t="n">
-        <v>1.005795337321175</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>136</v>
-      </c>
-      <c r="D3" t="n">
-        <v>-162</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.7332958622699053</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.2666240633108422</v>
-      </c>
-      <c r="G3" t="n">
-        <v>61.25782349569764</v>
-      </c>
-      <c r="H3" t="n">
-        <v>-18.29855801308094</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7332958622699053</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>CHA</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>LAL</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>525</v>
-      </c>
-      <c r="D4" t="n">
-        <v>-750</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.2977994568870492</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.7021764238743191</v>
-      </c>
-      <c r="G4" t="n">
-        <v>54.87466055440578</v>
-      </c>
-      <c r="H4" t="n">
-        <v>-66.5243686596375</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.2977994568870492</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>BKN</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GSW</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>-102</v>
-      </c>
-      <c r="D5" t="n">
-        <v>-118</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.6076707360039044</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.3923499865173703</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.44067516940068</v>
-      </c>
-      <c r="H5" t="n">
-        <v>-15.22021567779851</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>150</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-180</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.3860438792319744</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6139791208342429</v>
-      </c>
-      <c r="G6" t="n">
-        <v>-15.98903019200641</v>
-      </c>
-      <c r="H6" t="n">
-        <v>-35.06343869712241</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>NOP</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>TOR</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>-575</v>
-      </c>
-      <c r="D7" t="n">
-        <v>425</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.7428449900324272</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.2570549654412338</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-18.66602290923681</v>
-      </c>
-      <c r="H7" t="n">
-        <v>57.28285931576709</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.2570549654412338</v>
+        <v>-45.45454929892449</v>
       </c>
     </row>
   </sheetData>

--- a/data/Results.xlsx
+++ b/data/Results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,35 +474,699 @@
           <t>Away LB Return</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Home Std</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Away Std</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>-445</v>
+      </c>
+      <c r="D2" t="n">
+        <v>310</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6304162442346649</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3692056198714263</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-28.91531390833879</v>
+      </c>
+      <c r="H2" t="n">
+        <v>56.99536658360865</v>
+      </c>
+      <c r="I2" t="n">
+        <v>59.11621585070345</v>
+      </c>
+      <c r="J2" t="n">
+        <v>197.8617819193795</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>750</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1450</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.3618121002917186</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6377399035393251</v>
+      </c>
+      <c r="G3" t="n">
+        <v>165.0402852479608</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-64.76541132572936</v>
+      </c>
+      <c r="I3" t="n">
+        <v>408.446098537334</v>
+      </c>
+      <c r="J3" t="n">
+        <v>51.38019415266598</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>MIL</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>450</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-720</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.3741284452403929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6255418743125586</v>
+      </c>
+      <c r="G4" t="n">
+        <v>78.27064488221609</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-59.59351833273073</v>
+      </c>
+      <c r="I4" t="n">
+        <v>266.143375626702</v>
+      </c>
+      <c r="J4" t="n">
+        <v>55.12025004953849</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>BKN</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CHA</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>110</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-140</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.3427815004414346</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.656611405838687</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-38.51588490729873</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-27.39246382452176</v>
+      </c>
+      <c r="I5" t="n">
+        <v>99.67422607569122</v>
+      </c>
+      <c r="J5" t="n">
+        <v>81.4011143292542</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>-410</v>
+      </c>
+      <c r="D6" t="n">
+        <v>290</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7605915136488887</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.2389416715880045</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-11.60934830221141</v>
+      </c>
+      <c r="H6" t="n">
+        <v>25.85223612541018</v>
+      </c>
+      <c r="I6" t="n">
+        <v>53.08011162804274</v>
+      </c>
+      <c r="J6" t="n">
+        <v>166.3104456378503</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>-298</v>
+      </c>
+      <c r="D7" t="n">
+        <v>220</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.671722999070239</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3275702912282271</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-16.96451220471304</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23.23776397723388</v>
+      </c>
+      <c r="I7" t="n">
+        <v>62.71654793216053</v>
+      </c>
+      <c r="J7" t="n">
+        <v>150.1846954338793</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>-500</v>
+      </c>
+      <c r="D8" t="n">
+        <v>380</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8242473518627503</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.1771334222402389</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-7.090317776469961</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25.73543563756581</v>
+      </c>
+      <c r="I8" t="n">
+        <v>45.67314998184284</v>
+      </c>
+      <c r="J8" t="n">
+        <v>183.2551572297416</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UTA</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>425</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-575</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.3816213549541755</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6181251271342615</v>
+      </c>
+      <c r="G9" t="n">
+        <v>74.10121135094212</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-56.95742751094313</v>
+      </c>
+      <c r="I9" t="n">
+        <v>255.03681708619</v>
+      </c>
+      <c r="J9" t="n">
+        <v>57.03410998322465</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-205</v>
+      </c>
+      <c r="D10" t="n">
+        <v>170</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6576270157400598</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.3417583420392704</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-9.596956194771593</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.36161972068194</v>
+      </c>
+      <c r="I10" t="n">
+        <v>70.59688608708645</v>
+      </c>
+      <c r="J10" t="n">
+        <v>128.0607403277745</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-700</v>
+      </c>
+      <c r="D11" t="n">
+        <v>500</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7905413243063163</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.2095819741981307</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-15.36670579356385</v>
+      </c>
+      <c r="H11" t="n">
+        <v>53.845119529697</v>
+      </c>
+      <c r="I11" t="n">
+        <v>46.5054029946428</v>
+      </c>
+      <c r="J11" t="n">
+        <v>244.206169668508</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>TOR</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>POR</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>-218</v>
+      </c>
+      <c r="D12" t="n">
+        <v>180</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.7825881376282792</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.2173406966698429</v>
+      </c>
+      <c r="G12" t="n">
+        <v>6.863774204492099</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.38013916339964</v>
+      </c>
+      <c r="I12" t="n">
+        <v>60.16984251947446</v>
+      </c>
+      <c r="J12" t="n">
+        <v>115.4821696630582</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
         <is>
           <t>NYK</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>200</v>
-      </c>
-      <c r="D2" t="n">
-        <v>-245</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.3507480227274955</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.6495308864939859</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-9.775593181751347</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-45.45454929892449</v>
+      <c r="C13" t="n">
+        <v>102</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-122</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6199310578722345</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.3797966434034717</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15.12607369019136</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-15.97438245839362</v>
+      </c>
+      <c r="I13" t="n">
+        <v>98.05150357621966</v>
+      </c>
+      <c r="J13" t="n">
+        <v>88.31526187137565</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>-205</v>
+      </c>
+      <c r="D14" t="n">
+        <v>170</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7511450466271709</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.2482715002794215</v>
+      </c>
+      <c r="G14" t="n">
+        <v>4.316702059164445</v>
+      </c>
+      <c r="H14" t="n">
+        <v>3.820659710218738</v>
+      </c>
+      <c r="I14" t="n">
+        <v>64.32518248630545</v>
+      </c>
+      <c r="J14" t="n">
+        <v>116.6427382267422</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>NOP</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>260</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-325</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.2169098314578252</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.7830289826526792</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-39.91246067518294</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-60.75427892644275</v>
+      </c>
+      <c r="I15" t="n">
+        <v>148.3706519468365</v>
+      </c>
+      <c r="J15" t="n">
+        <v>53.90081728026042</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GSW</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>440</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-600</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.3363591435890055</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6629883234973147</v>
+      </c>
+      <c r="G16" t="n">
+        <v>54.63393753806301</v>
+      </c>
+      <c r="H16" t="n">
+        <v>-61.14761358281088</v>
+      </c>
+      <c r="I16" t="n">
+        <v>255.1302392994077</v>
+      </c>
+      <c r="J16" t="n">
+        <v>55.14703959459757</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ORL</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>-205</v>
+      </c>
+      <c r="D17" t="n">
+        <v>170</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.5823554092879545</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.4177738534321255</v>
+      </c>
+      <c r="G17" t="n">
+        <v>-20.79590252057262</v>
+      </c>
+      <c r="H17" t="n">
+        <v>15.75709601225678</v>
+      </c>
+      <c r="I17" t="n">
+        <v>73.37421460829739</v>
+      </c>
+      <c r="J17" t="n">
+        <v>133.1619801363048</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>TOR</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>NYK</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>110</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-130</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.5984356632204407</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.4015214757775621</v>
+      </c>
+      <c r="G18" t="n">
+        <v>15.17148927629256</v>
+      </c>
+      <c r="H18" t="n">
+        <v>-18.11632015660498</v>
+      </c>
+      <c r="I18" t="n">
+        <v>102.9450801694774</v>
+      </c>
+      <c r="J18" t="n">
+        <v>86.72876428220793</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>OKC</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>-950</v>
+      </c>
+      <c r="D19" t="n">
+        <v>625</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8096297058642518</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.1911073286943489</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-16.0409272465827</v>
+      </c>
+      <c r="H19" t="n">
+        <v>64.15505102039323</v>
+      </c>
+      <c r="I19" t="n">
+        <v>43.39188345719916</v>
+      </c>
+      <c r="J19" t="n">
+        <v>285.0507105247758</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>SAS</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>-185</v>
+      </c>
+      <c r="D20" t="n">
+        <v>154</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.582676700547948</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.4174491914483111</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-17.93899478045126</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9.854845537834706</v>
+      </c>
+      <c r="I20" t="n">
+        <v>75.96670226089572</v>
+      </c>
+      <c r="J20" t="n">
+        <v>125.2571233275994</v>
       </c>
     </row>
   </sheetData>
